--- a/biology/Écologie/Contrat_Natura_2000/Contrat_Natura_2000.xlsx
+++ b/biology/Écologie/Contrat_Natura_2000/Contrat_Natura_2000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, un contrat Natura 2000 est un contrat passé entre l'État et le propriétaire d'une parcelle incluse dans un site Natura 2000, et concernée par une ou plusieurs mesures de gestion proposées par le document d'objectifs ou DOCOB.
 Il vise à conserver ou restaurer l'habitat et les espèces d'intérêt communautaire qui ont amené à la création du site Natura 2000.
@@ -512,7 +524,9 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La France, pour la gestion des sites Natura 2000, a privilégié la contractualisation. C'est dans ce cadre qu'a été créée le contrat Natura 2000.
 Les propriétaires des terrains inclus dans le site peuvent conclure des contrats, comportant un ensemble d’engagements, conformes aux orientations définies par le DOCOB, « sur la conservation et, le cas échéant, le rétablissement des habitats naturels et des espèces qui ont justifié la création du site Natura 2000 ».
